--- a/static/downloads/35 Bưu điện Tỉnh Hoà Bình.xlsx
+++ b/static/downloads/35 Bưu điện Tỉnh Hoà Bình.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B261"/>
+  <dimension ref="A1:B260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>352390_thuylt</t>
+          <t>352370_huanhv</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>352370_huanhv</t>
+          <t>352380_huext</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>352380_huext</t>
+          <t>352310_chungnt</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>352310_chungnt</t>
+          <t>352250_tinhht</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>352250_tinhht</t>
+          <t>352270_sanght</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>352270_sanght</t>
+          <t>352400_dinhht</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>352400_dinhht</t>
+          <t>352210_duyenpt</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>352210_duyenpt</t>
+          <t>352410_hoalv</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>352410_hoalv</t>
+          <t>352320_xiecbt</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>352320_xiecbt</t>
+          <t>355520_maibt</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>355520_maibt</t>
+          <t>355480_thanhbt</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>355480_thanhbt</t>
+          <t>355360_nhudt</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>355360_nhudt</t>
+          <t>355350_hienbt</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>355350_hienbt</t>
+          <t>355500_lybt</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>355500_lybt</t>
+          <t>355280_hungbv</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>355280_hungbv</t>
+          <t>355470_niembt</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>355470_niembt</t>
+          <t>355300_quyenbt</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>355300_quyenbt</t>
+          <t>355140_binhbt</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>355140_binhbt</t>
+          <t>355270_anhbd</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>355270_anhbd</t>
+          <t>355380_hiepbt</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>355380_hiepbt</t>
+          <t>355320_phuongbt</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>355320_phuongbt</t>
+          <t>351580_andt</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>351580_andt</t>
+          <t>351510_loanntt</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>351510_loanntt</t>
+          <t>351630_lynt</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>351630_lynt</t>
+          <t>351650_ngant</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>351650_ngant</t>
+          <t>351860_diepdt</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>351860_diepdt</t>
+          <t>351610_huongnt</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>351610_huongnt</t>
+          <t>353960_quynhbt</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>353960_quynhbt</t>
+          <t>354240_hanhbtb</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>354240_hanhbtb</t>
+          <t>354030_hieubv</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>354030_hieubv</t>
+          <t>353920_huyenbt</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>353920_huyenbt</t>
+          <t>354121_lubv</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>354121_lubv</t>
+          <t>354580_huyenbt</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>354580_huyenbt</t>
+          <t>354350_donbt</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>354350_donbt</t>
+          <t>354540_thuongbt</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>354540_thuongbt</t>
+          <t>354050_tienqv</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>354050_tienqv</t>
+          <t>354330_hanhbt</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>354330_hanhbt</t>
+          <t>354420_hoangqv</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>354420_hoangqv</t>
+          <t>354410_linhbt</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>354410_linhbt</t>
+          <t>354390_anhnt</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>354390_anhnt</t>
+          <t>353980_phuongbt</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>353980_phuongbt</t>
+          <t>356020_nhungdt</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>356020_nhungdt</t>
+          <t>355820_hangnt</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>355820_hangnt</t>
+          <t>356000_hoandt</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>356000_hoandt</t>
+          <t>355830_vandth</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>355830_vandth</t>
+          <t>355860_chunglt</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>355860_chunglt</t>
+          <t>355970_huent</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>355970_huent</t>
+          <t>355930_tinhbt</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>355930_tinhbt</t>
+          <t>355900_huebt</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>355900_huebt</t>
+          <t>355960_thindt</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>355960_thindt</t>
+          <t>355950_aibt</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>355950_aibt</t>
+          <t>355910_ninbt</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>355910_ninbt</t>
+          <t>351940_hientt</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>351940_hientt</t>
+          <t>351930_tuyetlt</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>351930_tuyetlt</t>
+          <t>351970_truonglv</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>351970_truonglv</t>
+          <t>352040_khuyennt</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>352040_khuyennt</t>
+          <t>352010_tambt</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>352010_tambt</t>
+          <t>351880_hangnt</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>351880_hangnt</t>
+          <t>351890_haoct</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>351890_haoct</t>
+          <t>355160_ngabtt</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>355160_ngabtt</t>
+          <t>354800_namnt</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>354800_namnt</t>
+          <t>354800_thinhbt</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>354800_thinhbt</t>
+          <t>355000_thanhnt</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>355000_thanhnt</t>
+          <t>352700_myttt</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>352700_myttt</t>
+          <t>352920_thuanht</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>352920_thuanht</t>
+          <t>355250_tbc</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>355250_tbc</t>
+          <t>352400_tbc</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>352400_tbc</t>
+          <t>352450_tbc</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>352450_tbc</t>
+          <t>355510_tbc</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>355510_tbc</t>
+          <t>352701_diuhth</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>352701_diuhth</t>
+          <t>354580_tbc</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>354580_tbc</t>
+          <t>353730_tbc</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>353730_tbc</t>
+          <t>355620_tbc</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>355620_tbc</t>
+          <t>353960_tbc</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>353960_tbc</t>
+          <t>353531_tbc</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>353531_tbc</t>
+          <t>353490_tbc</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>353490_tbc</t>
+          <t>353370_tbc</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>353370_tbc</t>
+          <t>353380_tbc</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>353380_tbc</t>
+          <t>353320_tbc</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>353320_tbc</t>
+          <t>352920_tbc</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>352920_tbc</t>
+          <t>354840_tbc</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>354840_tbc</t>
+          <t>355360_tbc</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>355360_tbc</t>
+          <t>351080_tbc</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>351080_tbc</t>
+          <t>352020_tbc1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>352020_tbc1</t>
+          <t>354880_tiepbt</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>354880_tiepbt</t>
+          <t>352880_dinhbt</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>352880_dinhbt</t>
+          <t>352940_ngaqt</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>352940_ngaqt</t>
+          <t>353040_loanbg</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>353040_loanbg</t>
+          <t>353040_quyenbt</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>353040_quyenbt</t>
+          <t>352890_quanhv</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>352890_quanhv</t>
+          <t>353380_phuclv</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>353380_phuclv</t>
+          <t>354930_diendt</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>354930_diendt</t>
+          <t>352840_hienbt</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>352840_hienbt</t>
+          <t>354870_hangbt</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>354870_hangbt</t>
+          <t>352820_yentth</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>352820_yentth</t>
+          <t>354920_nhobt</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>354920_nhobt</t>
+          <t>354950_muibt</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>354950_muibt</t>
+          <t>353010_daubt</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>353010_daubt</t>
+          <t>353020_thambt</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>353020_thambt</t>
+          <t>354120_TBC</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>354120_TBC</t>
+          <t>352370_tbc</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>352370_tbc</t>
+          <t>355320_tbc</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>355320_tbc</t>
+          <t>352430_tbc</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>352430_tbc</t>
+          <t>355000_tbc</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>355000_tbc</t>
+          <t>351340_tbc</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>351340_tbc</t>
+          <t>352940_tbc</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>352940_tbc</t>
+          <t>354820_thuybt</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>354820_thuybt</t>
+          <t>354930_tbc</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>354930_tbc</t>
+          <t>352210_tuly</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>352210_tuly</t>
+          <t>353060_tuyenbk</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>353060_tuyenbk</t>
+          <t>353400_tbc</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>353400_tbc</t>
+          <t>355350_tbc</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>355350_tbc</t>
+          <t>353730_chinhbt</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>353730_chinhbt</t>
+          <t>354870_tbc</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>354870_tbc</t>
+          <t>354880_tbc</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>354880_tbc</t>
+          <t>354950_tbc</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>354950_tbc</t>
+          <t>355007_tbc</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>355007_tbc</t>
+          <t>351930_tbc</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2320,7 +2320,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>351930_tbc</t>
+          <t>351940_tbc</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>351940_tbc</t>
+          <t>354050_tbc</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>354050_tbc</t>
+          <t>355250_nhubv</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>355250_nhubv</t>
+          <t>353520_tbc</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>353520_tbc</t>
+          <t>352030_tbc</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>352030_tbc</t>
+          <t>355100_khennth</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>355100_khennth</t>
+          <t>353820_tbc</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>353820_tbc</t>
+          <t>351700_huongpd</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>351700_huongpd</t>
+          <t>354920_nhobtt</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>354920_nhobtt</t>
+          <t>352210_tbc</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>352210_tbc</t>
+          <t>354140_gdv</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>354140_gdv</t>
+          <t>354800_hatt</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>354800_hatt</t>
+          <t>351060_nhungttt</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>351060_nhungttt</t>
+          <t>354460_hanhqt</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>354460_hanhqt</t>
+          <t>352701_tbc</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>352701_tbc</t>
+          <t>353420_paiga</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2512,7 +2512,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>353420_paiga</t>
+          <t>3560020_nhungdt</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>3560020_nhungdt</t>
+          <t>353770_tbc</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>353770_tbc</t>
+          <t>353800_tbc</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>353800_tbc</t>
+          <t>352700_anhttl</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2560,7 +2560,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>352700_anhttl</t>
+          <t>352910</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>352910</t>
+          <t>352700_hadh</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2584,7 +2584,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>352700_hadh</t>
+          <t>351240_hanhnt</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>351240_hanhnt</t>
+          <t>353410_tbc</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>353410_tbc</t>
+          <t>351180_trangnt</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>351180_trangnt</t>
+          <t>351045_tbc</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>351045_tbc</t>
+          <t>353710_anhqtn</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>353710_anhqtn</t>
+          <t>353712_anhbn</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>353712_anhbn</t>
+          <t>352700_loanbt</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>352700_loanbt</t>
+          <t>354170_phuongbm</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>354170_phuongbm</t>
+          <t>351570_thomnt</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>351570_thomnt</t>
+          <t>353740_thuynt</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>353740_thuynt</t>
+          <t>351560_liembt</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>351560_liembt</t>
+          <t>354800_trangbtt</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>354800_trangbtt</t>
+          <t>354800_ngaqt</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>354800_ngaqt</t>
+          <t>355800_anhbn</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2752,7 +2752,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>355800_anhbn</t>
+          <t>354000_thanhbn</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>354000_thanhbn</t>
+          <t>355540_tbc1</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>355540_tbc1</t>
+          <t>351730_binhnt</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>351730_binhnt</t>
+          <t>352830_thongnt</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>352830_thongnt</t>
+          <t>355450_niembt</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>355450_niembt</t>
+          <t>351531_linhbtt</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>351531_linhbtt</t>
+          <t>354970_thuybt1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>354970_thuybt1</t>
+          <t>351600_thoabt</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>351600_thoabt</t>
+          <t>354970_tbc1</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>354970_tbc1</t>
+          <t>353100_moht</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2872,7 +2872,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>353100_moht</t>
+          <t>352000_ngannk</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>352000_ngannk</t>
+          <t>353760_hienbtt</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>353760_hienbtt</t>
+          <t>352830_tbc1</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>352830_tbc1</t>
+          <t>353920_oanhbt</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2920,7 +2920,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>353920_oanhbt</t>
+          <t>354940_tambt</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>354940_tambt</t>
+          <t>354440_tuoiqt</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>354440_tuoiqt</t>
+          <t>355610_giangnh</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -2956,7 +2956,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>355610_giangnh</t>
+          <t>354300_huanbv</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2968,7 +2968,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>354300_huanbv</t>
+          <t>352330_xuanhv</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2980,7 +2980,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>352330_xuanhv</t>
+          <t>355290_minh</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -2992,7 +2992,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>355290_minh</t>
+          <t>352740_thuybt</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3004,7 +3004,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>352740_thuybt</t>
+          <t>354240_ninhbt</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3016,7 +3016,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>354240_ninhbt</t>
+          <t>354240_tbc1</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>354240_tbc1</t>
+          <t>355421_thuybth</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3040,7 +3040,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>355421_thuybth</t>
+          <t>352470_hoadt</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3052,7 +3052,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>352470_hoadt</t>
+          <t>352750_gungbt</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>352750_gungbt</t>
+          <t>355400_hoabtp</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3076,7 +3076,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>355400_hoabtp</t>
+          <t>353080_ngocbt</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3088,7 +3088,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>353080_ngocbt</t>
+          <t>352740_tbc1</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3100,7 +3100,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>352740_tbc1</t>
+          <t>352760_chieubt</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3112,7 +3112,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>352760_chieubt</t>
+          <t>353750_thoavtk</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3124,7 +3124,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>353750_thoavtk</t>
+          <t>353810_loanbp</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3136,7 +3136,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>353810_loanbp</t>
+          <t>352200_ngatxt</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3148,7 +3148,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>352200_ngatxt</t>
+          <t>355320_xanhbt</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3160,7 +3160,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>355320_xanhbt</t>
+          <t>352870_hangbt</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3172,7 +3172,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>352870_hangbt</t>
+          <t>351700_linhln</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3184,7 +3184,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>351700_linhln</t>
+          <t>351170_hangntt</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3196,7 +3196,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>351170_hangntt</t>
+          <t>352020_nuongnt</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3208,7 +3208,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>352020_nuongnt</t>
+          <t>355510_thucbt</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>355510_thucbt</t>
+          <t>355120_huongdt</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3232,7 +3232,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>355120_huongdt</t>
+          <t>352500_huonggt</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3244,7 +3244,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>352500_huonggt</t>
+          <t>353920_hapt</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3256,7 +3256,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>353920_hapt</t>
+          <t>351500_nganth</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>351500_nganth</t>
+          <t>352730_ngadt</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -3280,7 +3280,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>352730_ngadt</t>
+          <t>352960_caubv</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -3292,7 +3292,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>352960_caubv</t>
+          <t>352820_loanbt</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -3304,7 +3304,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>352820_loanbt</t>
+          <t>352270_lanxt</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -3316,7 +3316,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>352270_lanxt</t>
+          <t>352780_hopbt</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -3328,7 +3328,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>352780_hopbt</t>
+          <t>355600_truongbq</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -3340,7 +3340,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>355600_truongbq</t>
+          <t>352710_ngabtt</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -3352,7 +3352,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>352710_ngabtt</t>
+          <t>352290_chacxt</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3364,7 +3364,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>352290_chacxt</t>
+          <t>353940_binhbt</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -3376,7 +3376,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>353940_binhbt</t>
+          <t>355100_thamdt</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -3388,7 +3388,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>355100_thamdt</t>
+          <t>355580_phuongbt</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -3400,7 +3400,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>355580_phuongbt</t>
+          <t>351500_hoantk</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -3412,7 +3412,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>351500_hoantk</t>
+          <t>355120_huongdh</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3424,7 +3424,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>355120_huongdh</t>
+          <t>354480_sonbth</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3436,7 +3436,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>354480_sonbth</t>
+          <t>353712_khangnh</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -3448,7 +3448,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>353712_khangnh</t>
+          <t>354840_uocdt</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -3460,7 +3460,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>354840_uocdt</t>
+          <t>353712_anhqtn</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>353712_anhqtn</t>
+          <t>354390_nhimbt</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -3484,7 +3484,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>354390_nhimbt</t>
+          <t>352850_yenbt</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -3496,7 +3496,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>352850_yenbt</t>
+          <t>354000_linhbt</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -3508,7 +3508,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>354000_linhbt</t>
+          <t>355260_haobt</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -3520,7 +3520,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>355260_haobt</t>
+          <t>351070_ngant</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -3532,22 +3532,10 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>351070_ngant</t>
+          <t>354580_thoabt</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
-        <is>
-          <t>35_Bưu điện Tỉnh Hoà Bình</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>354580_thoabt</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
         <is>
           <t>35_Bưu điện Tỉnh Hoà Bình</t>
         </is>
